--- a/Tournament Par final.xlsx
+++ b/Tournament Par final.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\ia.ua.edu\department\Strategic Planning\Interns\1. Current Interns\Vishak\Golf\Golf Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A685187E-5BDD-4B99-B91D-105974D75865}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89462974-C9B7-4DBB-AB0E-624987BA9F81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{058EE9A4-6D32-4816-8754-F47CD4387A8A}"/>
+    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{058EE9A4-6D32-4816-8754-F47CD4387A8A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5044" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5233" uniqueCount="58">
   <si>
     <t>Tournament</t>
   </si>
@@ -208,6 +208,9 @@
   <si>
     <t>Legends Trail Golf Club</t>
   </si>
+  <si>
+    <t>Linger Longer Invitational</t>
+  </si>
 </sst>
 </file>
 
@@ -282,9 +285,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -322,7 +325,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -428,7 +431,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -570,7 +573,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -578,10 +581,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6F8AD39-B771-4284-A80C-6E6DBC307EF5}">
-  <dimension ref="A1:D1681"/>
+  <dimension ref="A1:G1745"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1648" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H1670" sqref="H1670"/>
+    <sheetView tabSelected="1" topLeftCell="A1705" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G1736" sqref="G1736"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -24109,7 +24112,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="1681" spans="1:4">
+    <row r="1681" spans="1:7">
       <c r="A1681" s="1" t="s">
         <v>56</v>
       </c>
@@ -24122,6 +24125,1014 @@
       <c r="D1681" s="2">
         <v>72</v>
       </c>
+    </row>
+    <row r="1682" spans="1:7">
+      <c r="A1682" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B1682" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1682" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1682">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1683" spans="1:7">
+      <c r="A1683" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B1683" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1683" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1683">
+        <v>5</v>
+      </c>
+      <c r="F1683" s="1"/>
+      <c r="G1683" s="1"/>
+    </row>
+    <row r="1684" spans="1:7">
+      <c r="A1684" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B1684" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1684" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1684">
+        <v>4</v>
+      </c>
+      <c r="F1684" s="1"/>
+      <c r="G1684" s="1"/>
+    </row>
+    <row r="1685" spans="1:7">
+      <c r="A1685" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B1685" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1685" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1685">
+        <v>3</v>
+      </c>
+      <c r="F1685" s="1"/>
+      <c r="G1685" s="1"/>
+    </row>
+    <row r="1686" spans="1:7">
+      <c r="A1686" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B1686" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1686" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1686">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1687" spans="1:7">
+      <c r="A1687" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B1687" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1687" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1687">
+        <v>5</v>
+      </c>
+      <c r="F1687" s="1"/>
+      <c r="G1687" s="1"/>
+    </row>
+    <row r="1688" spans="1:7">
+      <c r="A1688" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B1688" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1688" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1688">
+        <v>4</v>
+      </c>
+      <c r="F1688" s="1"/>
+      <c r="G1688" s="1"/>
+    </row>
+    <row r="1689" spans="1:7">
+      <c r="A1689" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B1689" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1689" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1689">
+        <v>3</v>
+      </c>
+      <c r="F1689" s="1"/>
+      <c r="G1689" s="1"/>
+    </row>
+    <row r="1690" spans="1:7">
+      <c r="A1690" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B1690" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1690" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1690">
+        <v>4</v>
+      </c>
+      <c r="F1690" s="1"/>
+      <c r="G1690" s="1"/>
+    </row>
+    <row r="1691" spans="1:7">
+      <c r="A1691" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B1691" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1691" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1691">
+        <v>36</v>
+      </c>
+      <c r="F1691" s="1"/>
+      <c r="G1691" s="1"/>
+    </row>
+    <row r="1692" spans="1:7">
+      <c r="A1692" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B1692" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1692" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1692">
+        <v>4</v>
+      </c>
+      <c r="F1692" s="1"/>
+      <c r="G1692" s="1"/>
+    </row>
+    <row r="1693" spans="1:7">
+      <c r="A1693" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B1693" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1693" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1693">
+        <v>4</v>
+      </c>
+      <c r="F1693" s="1"/>
+      <c r="G1693" s="1"/>
+    </row>
+    <row r="1694" spans="1:7">
+      <c r="A1694" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B1694" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1694" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1694">
+        <v>5</v>
+      </c>
+      <c r="F1694" s="1"/>
+      <c r="G1694" s="1"/>
+    </row>
+    <row r="1695" spans="1:7">
+      <c r="A1695" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B1695" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1695" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1695">
+        <v>4</v>
+      </c>
+      <c r="F1695" s="1"/>
+      <c r="G1695" s="1"/>
+    </row>
+    <row r="1696" spans="1:7">
+      <c r="A1696" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B1696" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1696" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1696">
+        <v>3</v>
+      </c>
+      <c r="F1696" s="1"/>
+      <c r="G1696" s="1"/>
+    </row>
+    <row r="1697" spans="1:7">
+      <c r="A1697" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B1697" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1697" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1697">
+        <v>4</v>
+      </c>
+      <c r="F1697" s="1"/>
+      <c r="G1697" s="1"/>
+    </row>
+    <row r="1698" spans="1:7">
+      <c r="A1698" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B1698" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1698" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1698">
+        <v>4</v>
+      </c>
+      <c r="F1698" s="1"/>
+      <c r="G1698" s="1"/>
+    </row>
+    <row r="1699" spans="1:7">
+      <c r="A1699" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B1699" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1699" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1699">
+        <v>3</v>
+      </c>
+      <c r="F1699" s="1"/>
+      <c r="G1699" s="1"/>
+    </row>
+    <row r="1700" spans="1:7">
+      <c r="A1700" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B1700" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1700" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1700">
+        <v>5</v>
+      </c>
+      <c r="F1700" s="1"/>
+      <c r="G1700" s="1"/>
+    </row>
+    <row r="1701" spans="1:7">
+      <c r="A1701" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B1701" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1701" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1701">
+        <v>36</v>
+      </c>
+      <c r="F1701" s="1"/>
+      <c r="G1701" s="1"/>
+    </row>
+    <row r="1702" spans="1:7">
+      <c r="A1702" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B1702" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1702" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1702">
+        <v>72</v>
+      </c>
+      <c r="F1702" s="1"/>
+      <c r="G1702" s="1"/>
+    </row>
+    <row r="1703" spans="1:7">
+      <c r="A1703" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B1703" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1703" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1703">
+        <v>4</v>
+      </c>
+      <c r="F1703" s="1"/>
+      <c r="G1703" s="1"/>
+    </row>
+    <row r="1704" spans="1:7">
+      <c r="A1704" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B1704" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1704" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1704">
+        <v>5</v>
+      </c>
+      <c r="F1704" s="1"/>
+      <c r="G1704" s="1"/>
+    </row>
+    <row r="1705" spans="1:7">
+      <c r="A1705" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B1705" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1705" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1705">
+        <v>4</v>
+      </c>
+      <c r="F1705" s="1"/>
+      <c r="G1705" s="1"/>
+    </row>
+    <row r="1706" spans="1:7">
+      <c r="A1706" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B1706" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1706" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1706">
+        <v>3</v>
+      </c>
+      <c r="F1706" s="1"/>
+      <c r="G1706" s="1"/>
+    </row>
+    <row r="1707" spans="1:7">
+      <c r="A1707" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B1707" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1707" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1707">
+        <v>4</v>
+      </c>
+      <c r="F1707" s="1"/>
+      <c r="G1707" s="1"/>
+    </row>
+    <row r="1708" spans="1:7">
+      <c r="A1708" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B1708" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1708" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1708">
+        <v>5</v>
+      </c>
+      <c r="F1708" s="1"/>
+      <c r="G1708" s="1"/>
+    </row>
+    <row r="1709" spans="1:7">
+      <c r="A1709" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B1709" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1709" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1709">
+        <v>4</v>
+      </c>
+      <c r="F1709" s="1"/>
+      <c r="G1709" s="1"/>
+    </row>
+    <row r="1710" spans="1:7">
+      <c r="A1710" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B1710" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1710" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1710">
+        <v>3</v>
+      </c>
+      <c r="F1710" s="1"/>
+      <c r="G1710" s="1"/>
+    </row>
+    <row r="1711" spans="1:7">
+      <c r="A1711" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B1711" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1711" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1711">
+        <v>4</v>
+      </c>
+      <c r="F1711" s="1"/>
+      <c r="G1711" s="1"/>
+    </row>
+    <row r="1712" spans="1:7">
+      <c r="A1712" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B1712" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1712" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1712">
+        <v>36</v>
+      </c>
+      <c r="F1712" s="1"/>
+      <c r="G1712" s="1"/>
+    </row>
+    <row r="1713" spans="1:7">
+      <c r="A1713" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B1713" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1713" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1713">
+        <v>4</v>
+      </c>
+      <c r="F1713" s="1"/>
+      <c r="G1713" s="1"/>
+    </row>
+    <row r="1714" spans="1:7">
+      <c r="A1714" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B1714" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1714" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1714">
+        <v>4</v>
+      </c>
+      <c r="F1714" s="1"/>
+      <c r="G1714" s="1"/>
+    </row>
+    <row r="1715" spans="1:7">
+      <c r="A1715" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B1715" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1715" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1715">
+        <v>5</v>
+      </c>
+      <c r="F1715" s="1"/>
+      <c r="G1715" s="1"/>
+    </row>
+    <row r="1716" spans="1:7">
+      <c r="A1716" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B1716" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1716" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1716">
+        <v>4</v>
+      </c>
+      <c r="F1716" s="1"/>
+      <c r="G1716" s="1"/>
+    </row>
+    <row r="1717" spans="1:7">
+      <c r="A1717" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B1717" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1717" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1717">
+        <v>3</v>
+      </c>
+      <c r="F1717" s="1"/>
+      <c r="G1717" s="1"/>
+    </row>
+    <row r="1718" spans="1:7">
+      <c r="A1718" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B1718" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1718" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1718">
+        <v>4</v>
+      </c>
+      <c r="F1718" s="1"/>
+      <c r="G1718" s="1"/>
+    </row>
+    <row r="1719" spans="1:7">
+      <c r="A1719" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B1719" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1719" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1719">
+        <v>4</v>
+      </c>
+      <c r="F1719" s="1"/>
+      <c r="G1719" s="1"/>
+    </row>
+    <row r="1720" spans="1:7">
+      <c r="A1720" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B1720" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1720" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1720">
+        <v>3</v>
+      </c>
+      <c r="F1720" s="1"/>
+      <c r="G1720" s="1"/>
+    </row>
+    <row r="1721" spans="1:7">
+      <c r="A1721" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B1721" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1721" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1721">
+        <v>5</v>
+      </c>
+      <c r="F1721" s="1"/>
+      <c r="G1721" s="1"/>
+    </row>
+    <row r="1722" spans="1:7">
+      <c r="A1722" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B1722" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1722" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1722">
+        <v>36</v>
+      </c>
+      <c r="F1722" s="1"/>
+      <c r="G1722" s="1"/>
+    </row>
+    <row r="1723" spans="1:7">
+      <c r="A1723" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B1723" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1723" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1723">
+        <v>72</v>
+      </c>
+      <c r="F1723" s="1"/>
+      <c r="G1723" s="1"/>
+    </row>
+    <row r="1724" spans="1:7">
+      <c r="A1724" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B1724" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C1724" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1724">
+        <v>4</v>
+      </c>
+      <c r="F1724" s="1"/>
+      <c r="G1724" s="1"/>
+    </row>
+    <row r="1725" spans="1:7">
+      <c r="A1725" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B1725" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C1725" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1725">
+        <v>5</v>
+      </c>
+      <c r="F1725" s="1"/>
+      <c r="G1725" s="1"/>
+    </row>
+    <row r="1726" spans="1:7">
+      <c r="A1726" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B1726" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C1726" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1726">
+        <v>4</v>
+      </c>
+      <c r="F1726" s="1"/>
+      <c r="G1726" s="1"/>
+    </row>
+    <row r="1727" spans="1:7">
+      <c r="A1727" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B1727" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C1727" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1727">
+        <v>3</v>
+      </c>
+      <c r="F1727" s="1"/>
+      <c r="G1727" s="1"/>
+    </row>
+    <row r="1728" spans="1:7">
+      <c r="A1728" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B1728" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C1728" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1728">
+        <v>4</v>
+      </c>
+      <c r="F1728" s="1"/>
+      <c r="G1728" s="1"/>
+    </row>
+    <row r="1729" spans="1:7">
+      <c r="A1729" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B1729" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C1729" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1729">
+        <v>5</v>
+      </c>
+      <c r="F1729" s="1"/>
+      <c r="G1729" s="1"/>
+    </row>
+    <row r="1730" spans="1:7">
+      <c r="A1730" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B1730" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C1730" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1730">
+        <v>4</v>
+      </c>
+      <c r="F1730" s="1"/>
+      <c r="G1730" s="1"/>
+    </row>
+    <row r="1731" spans="1:7">
+      <c r="A1731" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B1731" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C1731" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1731">
+        <v>3</v>
+      </c>
+      <c r="F1731" s="1"/>
+      <c r="G1731" s="1"/>
+    </row>
+    <row r="1732" spans="1:7">
+      <c r="A1732" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B1732" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C1732" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1732">
+        <v>4</v>
+      </c>
+      <c r="F1732" s="1"/>
+      <c r="G1732" s="1"/>
+    </row>
+    <row r="1733" spans="1:7">
+      <c r="A1733" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B1733" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C1733" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1733">
+        <v>36</v>
+      </c>
+      <c r="F1733" s="1"/>
+      <c r="G1733" s="1"/>
+    </row>
+    <row r="1734" spans="1:7">
+      <c r="A1734" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B1734" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C1734" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1734">
+        <v>4</v>
+      </c>
+      <c r="F1734" s="1"/>
+      <c r="G1734" s="1"/>
+    </row>
+    <row r="1735" spans="1:7">
+      <c r="A1735" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B1735" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C1735" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1735">
+        <v>4</v>
+      </c>
+      <c r="F1735" s="1"/>
+      <c r="G1735" s="1"/>
+    </row>
+    <row r="1736" spans="1:7">
+      <c r="A1736" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B1736" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C1736" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1736">
+        <v>5</v>
+      </c>
+      <c r="F1736" s="1"/>
+      <c r="G1736" s="1"/>
+    </row>
+    <row r="1737" spans="1:7">
+      <c r="A1737" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B1737" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C1737" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1737">
+        <v>4</v>
+      </c>
+      <c r="F1737" s="1"/>
+      <c r="G1737" s="1"/>
+    </row>
+    <row r="1738" spans="1:7">
+      <c r="A1738" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B1738" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C1738" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1738">
+        <v>3</v>
+      </c>
+      <c r="F1738" s="1"/>
+      <c r="G1738" s="1"/>
+    </row>
+    <row r="1739" spans="1:7">
+      <c r="A1739" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B1739" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C1739" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1739">
+        <v>4</v>
+      </c>
+      <c r="F1739" s="1"/>
+      <c r="G1739" s="1"/>
+    </row>
+    <row r="1740" spans="1:7">
+      <c r="A1740" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B1740" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C1740" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1740">
+        <v>4</v>
+      </c>
+      <c r="F1740" s="1"/>
+      <c r="G1740" s="1"/>
+    </row>
+    <row r="1741" spans="1:7">
+      <c r="A1741" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B1741" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C1741" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1741">
+        <v>3</v>
+      </c>
+      <c r="F1741" s="1"/>
+      <c r="G1741" s="1"/>
+    </row>
+    <row r="1742" spans="1:7">
+      <c r="A1742" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B1742" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C1742" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1742">
+        <v>5</v>
+      </c>
+      <c r="F1742" s="1"/>
+      <c r="G1742" s="1"/>
+    </row>
+    <row r="1743" spans="1:7">
+      <c r="A1743" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B1743" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C1743" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1743">
+        <v>36</v>
+      </c>
+      <c r="F1743" s="1"/>
+      <c r="G1743" s="1"/>
+    </row>
+    <row r="1744" spans="1:7">
+      <c r="A1744" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B1744" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C1744" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1744">
+        <v>72</v>
+      </c>
+      <c r="F1744" s="1"/>
+      <c r="G1744" s="1"/>
+    </row>
+    <row r="1745" spans="6:7">
+      <c r="F1745" s="1"/>
+      <c r="G1745" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
